--- a/res/testcase/openurl.xlsx
+++ b/res/testcase/openurl.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16035" windowHeight="7785" activeTab="1"/>
+    <workbookView windowWidth="15330" windowHeight="4020"/>
   </bookViews>
   <sheets>
     <sheet name="Action" sheetId="1" r:id="rId1"/>
-    <sheet name="001_openurlsucss" sheetId="2" r:id="rId2"/>
+    <sheet name="op003_openurlsucss" sheetId="2" r:id="rId2"/>
+    <sheet name="op004_openurlfail" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:E9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <si>
     <t>动作名称</t>
   </si>
@@ -242,6 +244,9 @@
   </si>
   <si>
     <t>OpenUrlPage.用户报告</t>
+  </si>
+  <si>
+    <t>https://www.sina.com.cn/</t>
   </si>
 </sst>
 </file>
@@ -251,8 +256,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -286,7 +291,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,6 +312,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -323,6 +335,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -330,88 +417,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -434,187 +439,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,17 +633,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,41 +669,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -720,8 +686,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,145 +738,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -885,10 +890,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1250,7 +1255,7 @@
   <sheetPr/>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1480,8 +1485,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1536,7 +1541,7 @@
       <c r="D3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1570,7 +1575,7 @@
       <c r="D5" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1584,7 +1589,7 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1615,7 +1620,7 @@
       <c r="D8" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
@@ -1644,4 +1649,65 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="5" max="5" width="28.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="3:5">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3">
+      <formula1>Action!$A$2:$A$26</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://www.sina.com.cn/" tooltip="https://www.sina.com.cn/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>